--- a/グラフ.xlsx
+++ b/グラフ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koshino_Lab\Desktop\卒研 151331\EconomicDisparity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensh\Desktop\Graduation Research\EconomicDisparity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5515580A-28D4-48D1-9FB4-A521A2575E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950DEAC4-6158-47DC-927B-2C8146BAAB4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11510" yWindow="2120" windowWidth="22480" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29745" yWindow="1230" windowWidth="21465" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,73 +135,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>所得ー税率</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47222222222222221"/>
-          <c:y val="2.3148148148148147E-2"/>
+          <c:x val="0.14876438522107813"/>
+          <c:y val="0.12056737588652482"/>
+          <c:w val="0.74481651663568582"/>
+          <c:h val="0.69406628692689998"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -246,10 +192,44 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3832020997375326E-5"/>
-                  <c:y val="6.1267862350539515E-3"/>
+                  <c:x val="-3.3132688652645209E-2"/>
+                  <c:y val="9.6833640475791586E-4"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="1" baseline="0"/>
+                      <a:t>y = 12.041ln</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+                      <a:t>(</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="1" baseline="0"/>
+                      <a:t>x) - 58.859</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -373,6 +353,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                  <a:t>所得</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                  <a:t>万円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45046972576703775"/>
+              <c:y val="0.88980482492879875"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -434,6 +490,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                  <a:t>税率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1996,16 +2112,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2033,15 +2149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
+      <xdr:colOff>758825</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>269875</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2335,13 +2451,13 @@
   <dimension ref="B2:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="9" max="9" width="12.4140625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
